--- a/Modified Sample Data.xlsx
+++ b/Modified Sample Data.xlsx
@@ -508,17 +508,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>E02387</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>John Doe</t>
+          <t>Emily Davis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Software Engineer</t>
+          <t>Sr. Manger</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -528,32 +528,32 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Corporate</t>
+          <t>Research &amp; Development</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2020-01-01</t>
+          <t>2016-04-08</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>80000</v>
+        <v>141604</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -562,69 +562,73 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>New York</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
+          <t>Seattle</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2021-10-16</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>E04105</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jane Smith</t>
+          <t>Theodore Dinh</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Technical Architect</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Corporate</t>
+          <t>Manufacturing</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Caucasian</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2020-02-02</t>
+          <t>1997-11-29</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>95000</v>
+        <v>99975</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>China</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>San Francisco</t>
+          <t>Chongqing</t>
         </is>
       </c>
       <c r="N3" t="inlineStr"/>
@@ -632,27 +636,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>E02572</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alice Johnson</t>
+          <t>Luna Sanders</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Product Manager</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Corporate</t>
+          <t>Speciality Products</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -662,22 +666,22 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Caucasian</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2006-10-26</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>105000</v>
+        <v>163099</v>
       </c>
       <c r="K4" t="n">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -694,52 +698,52 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>E02832</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bob Brown</t>
+          <t>Penelope Jordan</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>HR Specialist</t>
+          <t>Computer Systems Manager</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Corporate</t>
+          <t>Manufacturing</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Caucasian</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2020-04-04</t>
+          <t>2019-09-27</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>70000</v>
+        <v>84913</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -748,7 +752,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Seattle</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
@@ -756,27 +760,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>E01639</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Charlie Davis</t>
+          <t>Austin Vo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing Manager</t>
+          <t>Sr. Analyst</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Corporate</t>
+          <t>Manufacturing</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -786,22 +790,22 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Caucasian</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2020-05-05</t>
+          <t>1995-11-20</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>85000</v>
+        <v>95409</v>
       </c>
       <c r="K6" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -810,7 +814,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Phoenix</t>
         </is>
       </c>
       <c r="N6" t="inlineStr"/>
@@ -1001,7 +1005,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2021-05-20 00:00:00</t>
+          <t>2021-05-20</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1443,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2020-03-09 00:00:00</t>
+          <t>2020-03-09</t>
         </is>
       </c>
     </row>
@@ -3055,7 +3059,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2017-07-16 00:00:00</t>
+          <t>2017-07-16</t>
         </is>
       </c>
     </row>
@@ -4361,7 +4365,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>2020-07-08 00:00:00</t>
+          <t>2020-07-08</t>
         </is>
       </c>
     </row>
@@ -4427,7 +4431,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>2021-06-24 00:00:00</t>
+          <t>2021-06-24</t>
         </is>
       </c>
     </row>
@@ -4679,7 +4683,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>2014-01-22 00:00:00</t>
+          <t>2014-01-22</t>
         </is>
       </c>
     </row>
@@ -4931,7 +4935,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>2021-09-26 00:00:00</t>
+          <t>2021-09-26</t>
         </is>
       </c>
     </row>
@@ -5245,7 +5249,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>2014-03-27 00:00:00</t>
+          <t>2014-03-27</t>
         </is>
       </c>
     </row>
@@ -5311,7 +5315,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>2017-10-08 00:00:00</t>
+          <t>2017-10-08</t>
         </is>
       </c>
     </row>
@@ -5749,7 +5753,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>2020-12-21 00:00:00</t>
+          <t>2020-12-21</t>
         </is>
       </c>
     </row>
@@ -6187,7 +6191,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>2019-12-22 00:00:00</t>
+          <t>2019-12-22</t>
         </is>
       </c>
     </row>
@@ -7059,7 +7063,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>2018-10-12 00:00:00</t>
+          <t>2018-10-12</t>
         </is>
       </c>
     </row>
@@ -8675,7 +8679,7 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>2021-05-01 00:00:00</t>
+          <t>2021-05-01</t>
         </is>
       </c>
     </row>
@@ -10477,7 +10481,7 @@
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>2013-12-13 00:00:00</t>
+          <t>2013-12-13</t>
         </is>
       </c>
     </row>
@@ -12961,7 +12965,7 @@
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>2017-09-25 00:00:00</t>
+          <t>2017-09-25</t>
         </is>
       </c>
     </row>
@@ -14701,7 +14705,7 @@
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>2010-01-15 00:00:00</t>
+          <t>2010-01-15</t>
         </is>
       </c>
     </row>
@@ -15263,7 +15267,7 @@
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>2013-06-05 00:00:00</t>
+          <t>2013-06-05</t>
         </is>
       </c>
     </row>
@@ -15391,7 +15395,7 @@
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>2020-07-17 00:00:00</t>
+          <t>2020-07-17</t>
         </is>
       </c>
     </row>
@@ -15643,7 +15647,7 @@
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>2020-09-25 00:00:00</t>
+          <t>2020-09-25</t>
         </is>
       </c>
     </row>
@@ -16887,7 +16891,7 @@
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>2008-06-17 00:00:00</t>
+          <t>2008-06-17</t>
         </is>
       </c>
     </row>
@@ -18689,7 +18693,7 @@
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>2021-11-10 00:00:00</t>
+          <t>2021-11-10</t>
         </is>
       </c>
     </row>
@@ -19127,7 +19131,7 @@
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>2020-10-03 00:00:00</t>
+          <t>2020-10-03</t>
         </is>
       </c>
     </row>
@@ -19379,7 +19383,7 @@
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>2021-07-27 00:00:00</t>
+          <t>2021-07-27</t>
         </is>
       </c>
     </row>
@@ -20499,7 +20503,7 @@
       </c>
       <c r="N322" t="inlineStr">
         <is>
-          <t>2005-04-14 00:00:00</t>
+          <t>2005-04-14</t>
         </is>
       </c>
     </row>
@@ -20937,7 +20941,7 @@
       </c>
       <c r="N329" t="inlineStr">
         <is>
-          <t>2020-04-24 00:00:00</t>
+          <t>2020-04-24</t>
         </is>
       </c>
     </row>
@@ -22057,7 +22061,7 @@
       </c>
       <c r="N347" t="inlineStr">
         <is>
-          <t>2016-10-03 00:00:00</t>
+          <t>2016-10-03</t>
         </is>
       </c>
     </row>
@@ -22371,7 +22375,7 @@
       </c>
       <c r="N352" t="inlineStr">
         <is>
-          <t>1998-10-11 00:00:00</t>
+          <t>1998-10-11</t>
         </is>
       </c>
     </row>
@@ -23987,7 +23991,7 @@
       </c>
       <c r="N378" t="inlineStr">
         <is>
-          <t>2003-01-02 00:00:00</t>
+          <t>2003-01-02</t>
         </is>
       </c>
     </row>
@@ -25479,7 +25483,7 @@
       </c>
       <c r="N402" t="inlineStr">
         <is>
-          <t>2007-08-16 00:00:00</t>
+          <t>2007-08-16</t>
         </is>
       </c>
     </row>
@@ -26165,7 +26169,7 @@
       </c>
       <c r="N413" t="inlineStr">
         <is>
-          <t>2019-12-11 00:00:00</t>
+          <t>2019-12-11</t>
         </is>
       </c>
     </row>
@@ -26355,7 +26359,7 @@
       </c>
       <c r="N416" t="inlineStr">
         <is>
-          <t>2019-08-04 00:00:00</t>
+          <t>2019-08-04</t>
         </is>
       </c>
     </row>
@@ -27351,7 +27355,7 @@
       </c>
       <c r="N432" t="inlineStr">
         <is>
-          <t>2011-12-26 00:00:00</t>
+          <t>2011-12-26</t>
         </is>
       </c>
     </row>
@@ -28781,7 +28785,7 @@
       </c>
       <c r="N455" t="inlineStr">
         <is>
-          <t>2015-08-08 00:00:00</t>
+          <t>2015-08-08</t>
         </is>
       </c>
     </row>
@@ -29157,7 +29161,7 @@
       </c>
       <c r="N461" t="inlineStr">
         <is>
-          <t>2020-07-12 00:00:00</t>
+          <t>2020-07-12</t>
         </is>
       </c>
     </row>
@@ -30339,7 +30343,7 @@
       </c>
       <c r="N480" t="inlineStr">
         <is>
-          <t>2004-05-15 00:00:00</t>
+          <t>2004-05-15</t>
         </is>
       </c>
     </row>
@@ -30901,7 +30905,7 @@
       </c>
       <c r="N489" t="inlineStr">
         <is>
-          <t>2017-08-11 00:00:00</t>
+          <t>2017-08-11</t>
         </is>
       </c>
     </row>
@@ -31959,7 +31963,7 @@
       </c>
       <c r="N506" t="inlineStr">
         <is>
-          <t>2022-04-11 00:00:00</t>
+          <t>2022-04-11</t>
         </is>
       </c>
     </row>
@@ -32769,7 +32773,7 @@
       </c>
       <c r="N519" t="inlineStr">
         <is>
-          <t>2015-11-30 00:00:00</t>
+          <t>2015-11-30</t>
         </is>
       </c>
     </row>
@@ -36431,7 +36435,7 @@
       </c>
       <c r="N578" t="inlineStr">
         <is>
-          <t>2022-05-18 00:00:00</t>
+          <t>2022-05-18</t>
         </is>
       </c>
     </row>
@@ -37303,7 +37307,7 @@
       </c>
       <c r="N592" t="inlineStr">
         <is>
-          <t>2021-05-18 00:00:00</t>
+          <t>2021-05-18</t>
         </is>
       </c>
     </row>
@@ -37927,7 +37931,7 @@
       </c>
       <c r="N602" t="inlineStr">
         <is>
-          <t>2022-04-10 00:00:00</t>
+          <t>2022-04-10</t>
         </is>
       </c>
     </row>
@@ -38179,7 +38183,7 @@
       </c>
       <c r="N606" t="inlineStr">
         <is>
-          <t>2021-01-07 00:00:00</t>
+          <t>2021-01-07</t>
         </is>
       </c>
     </row>
@@ -38803,7 +38807,7 @@
       </c>
       <c r="N616" t="inlineStr">
         <is>
-          <t>2019-05-09 00:00:00</t>
+          <t>2019-05-09</t>
         </is>
       </c>
     </row>
@@ -39117,7 +39121,7 @@
       </c>
       <c r="N621" t="inlineStr">
         <is>
-          <t>2017-09-22 00:00:00</t>
+          <t>2017-09-22</t>
         </is>
       </c>
     </row>
@@ -39617,7 +39621,7 @@
       </c>
       <c r="N629" t="inlineStr">
         <is>
-          <t>2021-02-02 00:00:00</t>
+          <t>2021-02-02</t>
         </is>
       </c>
     </row>
@@ -39745,7 +39749,7 @@
       </c>
       <c r="N631" t="inlineStr">
         <is>
-          <t>2015-06-09 00:00:00</t>
+          <t>2015-06-09</t>
         </is>
       </c>
     </row>
@@ -40369,7 +40373,7 @@
       </c>
       <c r="N641" t="inlineStr">
         <is>
-          <t>2022-06-20 00:00:00</t>
+          <t>2022-06-20</t>
         </is>
       </c>
     </row>
@@ -40683,7 +40687,7 @@
       </c>
       <c r="N646" t="inlineStr">
         <is>
-          <t>2021-03-08 00:00:00</t>
+          <t>2021-03-08</t>
         </is>
       </c>
     </row>
@@ -40935,7 +40939,7 @@
       </c>
       <c r="N650" t="inlineStr">
         <is>
-          <t>1994-12-18 00:00:00</t>
+          <t>1994-12-18</t>
         </is>
       </c>
     </row>
@@ -41249,7 +41253,7 @@
       </c>
       <c r="N655" t="inlineStr">
         <is>
-          <t>2021-05-01 00:00:00</t>
+          <t>2021-05-01</t>
         </is>
       </c>
     </row>
@@ -42307,7 +42311,7 @@
       </c>
       <c r="N672" t="inlineStr">
         <is>
-          <t>2021-10-22 00:00:00</t>
+          <t>2021-10-22</t>
         </is>
       </c>
     </row>
@@ -42621,7 +42625,7 @@
       </c>
       <c r="N677" t="inlineStr">
         <is>
-          <t>2019-04-03 00:00:00</t>
+          <t>2019-04-03</t>
         </is>
       </c>
     </row>
@@ -43803,7 +43807,7 @@
       </c>
       <c r="N696" t="inlineStr">
         <is>
-          <t>2020-12-12 00:00:00</t>
+          <t>2020-12-12</t>
         </is>
       </c>
     </row>
@@ -43869,7 +43873,7 @@
       </c>
       <c r="N697" t="inlineStr">
         <is>
-          <t>2022-06-03 00:00:00</t>
+          <t>2022-06-03</t>
         </is>
       </c>
     </row>
@@ -44927,7 +44931,7 @@
       </c>
       <c r="N714" t="inlineStr">
         <is>
-          <t>2009-12-06 00:00:00</t>
+          <t>2009-12-06</t>
         </is>
       </c>
     </row>
@@ -45117,7 +45121,7 @@
       </c>
       <c r="N717" t="inlineStr">
         <is>
-          <t>2017-12-22 00:00:00</t>
+          <t>2017-12-22</t>
         </is>
       </c>
     </row>
@@ -45927,7 +45931,7 @@
       </c>
       <c r="N730" t="inlineStr">
         <is>
-          <t>2014-10-26 00:00:00</t>
+          <t>2014-10-26</t>
         </is>
       </c>
     </row>
@@ -45993,7 +45997,7 @@
       </c>
       <c r="N731" t="inlineStr">
         <is>
-          <t>2018-05-09 00:00:00</t>
+          <t>2018-05-09</t>
         </is>
       </c>
     </row>
@@ -46059,7 +46063,7 @@
       </c>
       <c r="N732" t="inlineStr">
         <is>
-          <t>2022-08-17 00:00:00</t>
+          <t>2022-08-17</t>
         </is>
       </c>
     </row>
@@ -46497,7 +46501,7 @@
       </c>
       <c r="N739" t="inlineStr">
         <is>
-          <t>2021-05-24 00:00:00</t>
+          <t>2021-05-24</t>
         </is>
       </c>
     </row>
@@ -46563,7 +46567,7 @@
       </c>
       <c r="N740" t="inlineStr">
         <is>
-          <t>2020-06-09 00:00:00</t>
+          <t>2020-06-09</t>
         </is>
       </c>
     </row>
@@ -46815,7 +46819,7 @@
       </c>
       <c r="N744" t="inlineStr">
         <is>
-          <t>2007-04-08 00:00:00</t>
+          <t>2007-04-08</t>
         </is>
       </c>
     </row>
@@ -46943,7 +46947,7 @@
       </c>
       <c r="N746" t="inlineStr">
         <is>
-          <t>2020-07-17 00:00:00</t>
+          <t>2020-07-17</t>
         </is>
       </c>
     </row>
@@ -47133,7 +47137,7 @@
       </c>
       <c r="N749" t="inlineStr">
         <is>
-          <t>2006-04-22 00:00:00</t>
+          <t>2006-04-22</t>
         </is>
       </c>
     </row>
@@ -47199,7 +47203,7 @@
       </c>
       <c r="N750" t="inlineStr">
         <is>
-          <t>2008-05-30 00:00:00</t>
+          <t>2008-05-30</t>
         </is>
       </c>
     </row>
@@ -47327,7 +47331,7 @@
       </c>
       <c r="N752" t="inlineStr">
         <is>
-          <t>2022-04-20 00:00:00</t>
+          <t>2022-04-20</t>
         </is>
       </c>
     </row>
@@ -49067,7 +49071,7 @@
       </c>
       <c r="N780" t="inlineStr">
         <is>
-          <t>2021-04-20 00:00:00</t>
+          <t>2021-04-20</t>
         </is>
       </c>
     </row>
@@ -49133,7 +49137,7 @@
       </c>
       <c r="N781" t="inlineStr">
         <is>
-          <t>2014-12-25 00:00:00</t>
+          <t>2014-12-25</t>
         </is>
       </c>
     </row>
@@ -49385,7 +49389,7 @@
       </c>
       <c r="N785" t="inlineStr">
         <is>
-          <t>2021-07-09 00:00:00</t>
+          <t>2021-07-09</t>
         </is>
       </c>
     </row>
@@ -51125,7 +51129,7 @@
       </c>
       <c r="N813" t="inlineStr">
         <is>
-          <t>2017-12-09 00:00:00</t>
+          <t>2017-12-09</t>
         </is>
       </c>
     </row>
@@ -52121,7 +52125,7 @@
       </c>
       <c r="N829" t="inlineStr">
         <is>
-          <t>2016-03-16 00:00:00</t>
+          <t>2016-03-16</t>
         </is>
       </c>
     </row>
@@ -52559,7 +52563,7 @@
       </c>
       <c r="N836" t="inlineStr">
         <is>
-          <t>1996-12-14 00:00:00</t>
+          <t>1996-12-14</t>
         </is>
       </c>
     </row>
@@ -53307,7 +53311,7 @@
       </c>
       <c r="N848" t="inlineStr">
         <is>
-          <t>2019-05-23 00:00:00</t>
+          <t>2019-05-23</t>
         </is>
       </c>
     </row>
@@ -54675,7 +54679,7 @@
       </c>
       <c r="N870" t="inlineStr">
         <is>
-          <t>2021-04-09 00:00:00</t>
+          <t>2021-04-09</t>
         </is>
       </c>
     </row>
@@ -56043,7 +56047,7 @@
       </c>
       <c r="N892" t="inlineStr">
         <is>
-          <t>2020-02-04 00:00:00</t>
+          <t>2020-02-04</t>
         </is>
       </c>
     </row>
@@ -56357,7 +56361,7 @@
       </c>
       <c r="N897" t="inlineStr">
         <is>
-          <t>2018-05-31 00:00:00</t>
+          <t>2018-05-31</t>
         </is>
       </c>
     </row>
@@ -56981,7 +56985,7 @@
       </c>
       <c r="N907" t="inlineStr">
         <is>
-          <t>2021-08-14 00:00:00</t>
+          <t>2021-08-14</t>
         </is>
       </c>
     </row>
@@ -57171,7 +57175,7 @@
       </c>
       <c r="N910" t="inlineStr">
         <is>
-          <t>2021-01-15 00:00:00</t>
+          <t>2021-01-15</t>
         </is>
       </c>
     </row>
@@ -60213,7 +60217,7 @@
       </c>
       <c r="N959" t="inlineStr">
         <is>
-          <t>2004-05-24 00:00:00</t>
+          <t>2004-05-24</t>
         </is>
       </c>
     </row>
@@ -60589,7 +60593,7 @@
       </c>
       <c r="N965" t="inlineStr">
         <is>
-          <t>2021-03-02 00:00:00</t>
+          <t>2021-03-02</t>
         </is>
       </c>
     </row>
@@ -61771,7 +61775,7 @@
       </c>
       <c r="N984" t="inlineStr">
         <is>
-          <t>2017-03-26 00:00:00</t>
+          <t>2017-03-26</t>
         </is>
       </c>
     </row>
@@ -61837,7 +61841,7 @@
       </c>
       <c r="N985" t="inlineStr">
         <is>
-          <t>2019-03-14 00:00:00</t>
+          <t>2019-03-14</t>
         </is>
       </c>
     </row>
@@ -62337,7 +62341,7 @@
       </c>
       <c r="N993" t="inlineStr">
         <is>
-          <t>2004-11-27 00:00:00</t>
+          <t>2004-11-27</t>
         </is>
       </c>
     </row>
@@ -62651,7 +62655,7 @@
       </c>
       <c r="N998" t="inlineStr">
         <is>
-          <t>2018-01-08 00:00:00</t>
+          <t>2018-01-08</t>
         </is>
       </c>
     </row>
